--- a/data/TimeComplexity - Denison.xlsx
+++ b/data/TimeComplexity - Denison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbrib\OneDrive\Documents\College\The College of Wooster\Senior\I.S\Shapefile-Network-Navigator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_D149B5F8507C0F79C252D00E97FDD7A1E929C521" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{4D448B35-4F36-4988-AF67-0CE7F5EF078C}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_D149B5F8507C0F79C252D00E97FDD7A1E929C521" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{EE39B6EA-2F12-41FF-A0BE-D9373A68E536}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time and grid size" sheetId="1" r:id="rId1"/>
@@ -846,8 +846,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1736,8 +1737,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2626,8 +2628,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3516,8 +3519,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3668,6 +3672,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Elapsed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5736,8 +5764,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8962,15 +8991,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>2380</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9321,7 +9350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -12569,8 +12598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A63D96A-2960-4B9A-B593-A74440EBD0F4}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
